--- a/sssom-mappings/tables/dob_sssom.xlsx
+++ b/sssom-mappings/tables/dob_sssom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/sssom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangshuxin/PycharmProjects/concept-based-mapping/sssom-mappings/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DF2AB3-8528-6E4A-88CD-2ECC0D778A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A43EA0-AA03-B548-B6BB-E7F37D5239E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24160" windowHeight="21440" xr2:uid="{A7ED2088-67B6-4343-9C05-083258E1C6E2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33580" windowHeight="18640" xr2:uid="{A7ED2088-67B6-4343-9C05-083258E1C6E2}"/>
   </bookViews>
   <sheets>
     <sheet name="date_of_birth" sheetId="1" r:id="rId1"/>
@@ -489,10 +489,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC00C341-3441-564B-9FDB-F31C8C2D6810}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="158" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B26" sqref="B26"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
